--- a/assets/Archivos/Empleado/plan-acciones.xlsx
+++ b/assets/Archivos/Empleado/plan-acciones.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Octavio\Desktop\SFM Proyecto\SFM Proyecto\assets\Archivos\empleado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Octavio\Desktop\SFM Proyecto\SFM Proyecto\assets\Archivos\Empleado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33645D4-1B34-4D79-A0E6-F2CBFA232854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF8F78B-DF54-4BB3-BEFE-F41C11699BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-2295" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>MES</t>
   </si>
@@ -72,7 +72,13 @@
     <t>Proceso</t>
   </si>
   <si>
-    <t>Junio</t>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Empleado</t>
   </si>
 </sst>
 </file>
@@ -399,75 +405,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F5" s="1"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G5" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J7" s="1"/>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
